--- a/Forecasts/Calaveras.xlsx
+++ b/Forecasts/Calaveras.xlsx
@@ -878,7 +878,7 @@
     <t xml:space="preserve">$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-08-15 21:07:57"</t>
+    <t xml:space="preserve">[1] "2020-08-16 08:26:42"</t>
   </si>
   <si>
     <t xml:space="preserve">$LEMMA.version</t>

--- a/Forecasts/Calaveras.xlsx
+++ b/Forecasts/Calaveras.xlsx
@@ -887,7 +887,7 @@
     <t xml:space="preserve">$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-08-19 00:34:31"</t>
+    <t xml:space="preserve">[1] "2020-08-19 12:47:09"</t>
   </si>
   <si>
     <t xml:space="preserve">$LEMMA.version</t>
